--- a/biology/Botanique/Château_de_Bonrepos/Château_de_Bonrepos.xlsx
+++ b/biology/Botanique/Château_de_Bonrepos/Château_de_Bonrepos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Bonrepos est situé en France sur la commune de Bonrepos-Riquet (désignation officielle de la commune depuis 1921), dans le département de la Haute-Garonne et la région Occitanie. Il a été construit par Pierre-Paul Riquet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à la fin du XVIe siècle, la localité avait le même nom que sa paroisse : Saint-Jean-de-Montagne, qui dépendait de la baronnie de Verfeil. Après l'incendie de l'église par les huguenots entre 1570 et 1593, c'est le nom de la seigneurie de Bonrepos qui s'impose définitivement.
 Attiré par le site, Pierre-Paul Riquet choisit Bonrepos pour y étudier, à ciel ouvert, grâce aux nombreuses sources et rigoles du vallon de la Garène, les problèmes que lui pose l'alimentation en eau de son canal, en projet, le canal royal de Languedoc, il décide, en 1651, de s'y installer. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Pierre-Paul Riquet avant son installation à Bonrepos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Paul Riquet avait de lointaines origines nobiliaires. Il est né à Béziers, probablement le 29 juin 1609, dans une famille de notables et de commerçants. Les sources diffèrent sur sa date de naissance. Il mena à partir de 1630 une carrière prospère comme contrôleur dans la ferme de gabelle du Languedoc. Il se marie avec Catherine de Milhau, riche héritière biterroise. Il s'installe à Mirepoix puis à Revel. Dès 1651, il exerce la fonction de sous-fermier avant de devenir fermier-général. Possédant déjà plusieurs propriétés à Revel et à Toulouse, il acquit en 1651 la seigneurie de Bonrepos près de Verfeil au nord-est de Toulouse constitué d'un parc de 150 hectares et d'un château Renaissance.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Le château de Bonrepos avant l'arrivée de Pierre-Paul Riquet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l’ordonnance du 31 juillet 1626 sur le démantèlement de toutes les places fortes du Royaume, le donjon de Bonrepos a perdu toute fonction militaire. C’est sur l’emplacement de ce bastion déchu que Pierre-Paul Riquet entreprend la construction d’un nouveau château à partir de 1651. Les fossés de l’édifice antérieur furent aménagés en parterres ; l’espace situé à l’ouest du château fut débarrassé de ses murailles, afin d’offrir une vue dégagée sur le château, dont il devint la « cour d’honneur » dans sa partie comprise à l’intérieur des douves.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Pierre-Paul Riquet à Bonrepos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Riquet s'activa à transformer le château passablement délabré, entouré de défenses en très mauvais état en une agréable demeure dans le style austère du XVIIe siècle. Le château est reconstruit de 1654 à 1666 par le maçon de Revel, en conservant plusieurs éléments militaires hérités de la maison-forte antérieure, probablement aménagée durant les guerres de Religion : fossés secs, cour intérieure close (les bâtiments clôturant l'espace ont été démantelés depuis), corps de logis fortifié à l'est de deux imposantes tours carrées et à l'ouest par deux tourelles rondes en poivrière.
 Les façades originellement en briques de bandeaux furent modifiées au XVIIIe siècle. Les ouvertures, portes et fenêtres furent elles aussi remises au goût du jour. Riquet agrémenta sa demeure d'un parc et de jardins à la française, entreprise qui fut poursuivie par ses descendants (construction de l'orangerie, de la glacière, et du labyrinthe arboré). À quelque distance du domaine, Riquet fit également construire une briqueterie et une forge, lieux qui lui servaient pour ses expériences.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Le domaine de Bonrepos après la mort de Pierre-Paul Riquet</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de Riquet, son fils Mathias, baron de Bonrepos, achève les travaux de construction. Il est conseiller au Parlement de Toulouse en 1664 et président à mortier en 1683. Il meurt le 30 avril 1714. 
 Le château passe alors à son fils, issu d'un second mariage avec Madeleine de Broglie : Jean Gabriel Amable de Riquet, qui devient conseiller au parlement, procureur général en 1752. 
@@ -669,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bonrepos</t>
+          <t>Château_de_Bonrepos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,11 +709,13 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est construit sur un site castral, une plate-forme entourée de fossés enjambés par deux ponts. Il est formé d'un logis rectangulaire cantonné de tours carrées et de tourelles sur la façade arrière. Le logis et les bâtiments des communs entourent deux cours et donne au sud sur une terrasse. Tous ces bâtiments et l'orangerie sont classés monument historique.
 Les jardins et le parc dans lequel sont conservés les aménagements hydrauliques conçus par Riquet pour préparer la construction du canal du Midi et expérimenter les différentes techniques sont eux aussi classés monument historique.
-Le jardin d'agrément du château de Bonrepos-Riquet est inscrit au pré-inventaire des jardins remarquables[2].
+Le jardin d'agrément du château de Bonrepos-Riquet est inscrit au pré-inventaire des jardins remarquables.
 </t>
         </is>
       </c>
